--- a/academias/Humanidades - Estadisticos 20202.xlsx
+++ b/academias/Humanidades - Estadisticos 20202.xlsx
@@ -994,13 +994,13 @@
         <v>28.57</v>
       </c>
       <c r="I3">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>4.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1419,19 +1419,19 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>90.48</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="H3">
-        <v>9.52</v>
+        <v>4.76</v>
       </c>
       <c r="I3">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="J3">
         <v>0</v>
